--- a/en/application_framework/application_framework/handlers/images/LoopHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/LoopHandler/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\handlers\images\LoopHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61E938-ABE4-46D4-88DD-F1D0B2258FE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="105" yWindow="840" windowWidth="15300" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +74,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -89,7 +98,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -121,11 +136,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>トランザクションループ制御ハンドラ</a:t>
+            <a:t>Transaction loop control handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -147,7 +162,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -179,18 +200,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>トランザクション開始</a:t>
+            <a:t>Transaction start</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -211,7 +227,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -243,18 +265,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラの呼び出し</a:t>
+            <a:t>Call subsequent handlers</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -275,7 +292,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="2"/>
           <a:endCxn id="21" idx="0"/>
@@ -325,7 +348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -357,11 +386,25 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Subsequent</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -383,7 +426,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -433,7 +482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -465,18 +520,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>トランザクション終了</a:t>
+            <a:t>Transaction end</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -513,7 +563,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -545,18 +601,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コールバック処理の呼び出し</a:t>
+            <a:t>Call callback process</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -577,7 +628,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="28" idx="0"/>
@@ -627,7 +684,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="2"/>
           <a:endCxn id="23" idx="0"/>
@@ -677,7 +740,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="1"/>
           <a:endCxn id="21" idx="1"/>
@@ -724,18 +793,24 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1600200" y="2838450"/>
-          <a:ext cx="1400175" cy="933450"/>
+          <a:ext cx="1400175" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -765,11 +840,11 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>処理対象データが無くなるまで、この処理を繰り返す</a:t>
+            <a:t>Repeat this process until all transactions are complete</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -780,7 +855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -822,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,9 +930,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -890,6 +982,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1065,11 +1174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
